--- a/HW5-transient-NewtonCG/steps.xlsx
+++ b/HW5-transient-NewtonCG/steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afzal-admin/Desktop/Courses/Inverse Problems/Computational-and-Variational-Methods-for-Inverse-Problems/HW5-transient-NewtonCG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBB747B-16D0-0D4D-9D73-05355896812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578C7737-0B99-6D4A-B965-71FC759D7E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14620" windowHeight="18000" xr2:uid="{C536AF91-70CA-EE4F-B270-B527F9A7AE25}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C536AF91-70CA-EE4F-B270-B527F9A7AE25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Beta</t>
   </si>
   <si>
-    <t>Noise</t>
-  </si>
-  <si>
     <t>Tikhonov</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Part</t>
+  </si>
+  <si>
+    <t>Noise SD</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A6:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="A7" sqref="A7:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,13 +600,13 @@
     <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -635,7 +635,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
@@ -908,7 +908,7 @@
         <v>1E-8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="4">
         <v>6</v>
